--- a/SourceCode/2024/May 2024/Bhavya/Task 34/input.xlsx
+++ b/SourceCode/2024/May 2024/Bhavya/Task 34/input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhavy\OneDrive\Desktop\RPA-Developer-in-30-Days\SourceCode\2024\May 2024\Bhavya\Task 34\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E37640-1ED6-420F-9515-8EDEBFBF15E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE10340B-7067-4998-B004-5D6A0BC58A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,7 +351,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -366,7 +366,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -374,7 +374,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>110</v>
@@ -382,7 +382,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>120</v>
@@ -390,7 +390,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>130</v>
@@ -398,7 +398,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>140</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>150</v>
@@ -414,7 +414,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>160</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>170</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>180</v>
